--- a/CodeSystem-pco-concepts.xlsx
+++ b/CodeSystem-pco-concepts.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-25T16:46:38+00:00</t>
+    <t>2025-02-03T23:01:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-pco-concepts.xlsx
+++ b/CodeSystem-pco-concepts.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-03T23:01:50+00:00</t>
+    <t>2025-02-10T21:11:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -126,7 +126,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>2</t>
+    <t>3</t>
   </si>
   <si>
     <t>Level</t>
@@ -159,7 +159,16 @@
     <t>What Matters</t>
   </si>
   <si>
-    <t>Know and align care with each person's specific health outcome goals and care preferences including, but not limited to, end-of-life care, and across settings of care.</t>
+    <t>Identify each person's specific health outcome goals and priorities across settings of care.</t>
+  </si>
+  <si>
+    <t>well-being</t>
+  </si>
+  <si>
+    <t>Well-Being</t>
+  </si>
+  <si>
+    <t>Indicator for a person's well-being.</t>
   </si>
 </sst>
 </file>
@@ -474,7 +483,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -522,6 +531,20 @@
         <v>48</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
